--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>Exercise</t>
   </si>
   <si>
     <t>Angle</t>
+  </si>
+  <si>
+    <t>Value</t>
   </si>
   <si>
     <t>Commentary</t>
@@ -35,6 +38,129 @@
 Then return to the starting position, and you can repeat this movement 5 times.</t>
   </si>
   <si>
+    <t>BBRW</t>
+  </si>
+  <si>
+    <t>BRGM</t>
+  </si>
+  <si>
+    <t>BRK4</t>
+  </si>
+  <si>
+    <t>BRKZ</t>
+  </si>
+  <si>
+    <t>BULG</t>
+  </si>
+  <si>
+    <t>CHOP</t>
+  </si>
+  <si>
+    <t>CLMB</t>
+  </si>
+  <si>
+    <t>FRLG</t>
+  </si>
+  <si>
+    <t>GLUT</t>
+  </si>
+  <si>
+    <t>HMST</t>
+  </si>
+  <si>
+    <t>HMSZ</t>
+  </si>
+  <si>
+    <t>HSSE</t>
+  </si>
+  <si>
+    <t>IPST</t>
+  </si>
+  <si>
+    <t>JPJK</t>
+  </si>
+  <si>
+    <t>LGST</t>
+  </si>
+  <si>
+    <t>LPLT</t>
+  </si>
+  <si>
+    <t>LTDB</t>
+  </si>
+  <si>
+    <t>LTLG</t>
+  </si>
+  <si>
+    <t>LTLP</t>
+  </si>
+  <si>
+    <t>LTPL</t>
+  </si>
+  <si>
+    <t>MOZR</t>
+  </si>
+  <si>
+    <t>OLDL</t>
+  </si>
+  <si>
+    <t>PLCI</t>
+  </si>
+  <si>
+    <t>PLLU</t>
+  </si>
+  <si>
+    <t>PLM1</t>
+  </si>
+  <si>
+    <t>PLTO</t>
+  </si>
+  <si>
+    <t>PUSH</t>
+  </si>
+  <si>
+    <t>RFSN</t>
+  </si>
+  <si>
+    <t>SKIS</t>
+  </si>
+  <si>
+    <t>SKJP</t>
+  </si>
+  <si>
+    <t>SMSQ</t>
+  </si>
+  <si>
+    <t>SQOC</t>
+  </si>
+  <si>
+    <t>SQUA</t>
+  </si>
+  <si>
+    <t>STRZ</t>
+  </si>
+  <si>
+    <t>TRID</t>
+  </si>
+  <si>
+    <t>TRST</t>
+  </si>
+  <si>
+    <t>YMWS</t>
+  </si>
+  <si>
+    <t>YPST</t>
+  </si>
+  <si>
+    <t>right_elbow</t>
+  </si>
+  <si>
+    <t>Starting position standing, feet hip-width apart, arms extended in a Y form, side bends to one side and to the other until whole side of body is stretched, with a 5 second hold. 3 repetitions on each side.</t>
+  </si>
+  <si>
+    <t>ZRCS</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -57,9 +183,6 @@
   </si>
   <si>
     <t>left_knee</t>
-  </si>
-  <si>
-    <t>right_elbow</t>
   </si>
   <si>
     <t>left_elbow</t>
@@ -128,13 +251,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFD2D2DF"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -146,6 +274,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -370,7 +501,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="78.13"/>
+    <col customWidth="1" min="3" max="3" width="9.88"/>
+    <col customWidth="1" min="4" max="4" width="77.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -380,20 +512,276 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="F44" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -412,300 +800,300 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5">
         <v>23.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>25.0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>27.0</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>12.0</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <v>13.0</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="5">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4">
+        <v>55</v>
+      </c>
+      <c r="B3" s="5">
         <v>24.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>26.0</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>28.0</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>9.0</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>10.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5">
         <v>15.0</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>13.0</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>11.0</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>7.0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>6.0</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="5">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4">
+        <v>56</v>
+      </c>
+      <c r="B5" s="5">
         <v>16.0</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>14.0</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>12.0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>4.0</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <v>3.0</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5">
         <v>12.0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>24.0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>26.0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>5.0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>12.0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4">
+        <v>58</v>
+      </c>
+      <c r="B7" s="5">
         <v>11.0</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>23.0</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>25.0</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>2.0</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>9.0</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="5">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4">
+        <v>59</v>
+      </c>
+      <c r="B8" s="5">
         <v>32.0</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>28.0</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>26.0</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>20.0</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>21.0</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="5">
         <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5">
         <v>31.0</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>27.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>25.0</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>23.0</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>24.0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4">
+        <v>61</v>
+      </c>
+      <c r="B10" s="5">
         <v>14.0</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>12.0</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>24.0</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>6.0</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>5.0</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="5">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4">
+        <v>62</v>
+      </c>
+      <c r="B11" s="5">
         <v>13.0</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>11.0</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>23.0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>3.0</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>2.0</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4">
+        <v>63</v>
+      </c>
+      <c r="B12" s="5">
         <v>0.0</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>33.0</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>12.0</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>0.0</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>1.0</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4">
+        <v>64</v>
+      </c>
+      <c r="B13" s="5">
         <v>0.0</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>33.0</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>11.0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <v>0.0</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>1.0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>2.0</v>
       </c>
     </row>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Exercise</t>
   </si>
@@ -23,7 +23,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Commentary</t>
+    <t>Short Commentary</t>
+  </si>
+  <si>
+    <t>Long commentary</t>
   </si>
   <si>
     <t>1LBR</t>
@@ -32,133 +35,253 @@
     <t>right_knee</t>
   </si>
   <si>
-    <t>For this exercise, lie on your back, place your arms flat alongside your body and then bend your knees. 
-Raise your right knee to 90 degrees: You're in the starting position.
-Now raise your pelvis with your left leg so that your left shoulder, hip and knee form a straight line.
-Then return to the starting position, and you can repeat this movement 5 times.</t>
+    <t>Lying on your back- knees bent, feet on the mat, perform a bridge lift. At the same time, lift one leg into the air. Alternate sides-repeat 5 times on each side.</t>
+  </si>
+  <si>
+    <t>More information to come</t>
   </si>
   <si>
     <t>BBRW</t>
   </si>
   <si>
+    <t>Standing, knees slightly bent, torso flexed, pull the dumbbell towards your body.Repeat 10 times.</t>
+  </si>
+  <si>
     <t>BRGM</t>
   </si>
   <si>
+    <t>Lying on your back, with your legs extended and supported by the ball, perform the lift into the plank, Upper arms and shoulder blades remaining in contact with the mat. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>BRK4</t>
   </si>
   <si>
+    <t>On all fours on the mat, alternate uplifting the opposite lower and upper limb simultaneously. 5 repetitions on each side.</t>
+  </si>
+  <si>
     <t>BRKZ</t>
   </si>
   <si>
+    <t xml:space="preserve">Lying on your back, lay the opposite limbs toward mat simultaneously, strengthen Your abdomen. Repeat 10 time. </t>
+  </si>
+  <si>
     <t>BULG</t>
   </si>
   <si>
+    <t>Standing on one leg and with the other supported by a chair behind you, perform squats on one leg. The knee of the standing leg should not exceed the line of the thumb.</t>
+  </si>
+  <si>
     <t>CHOP</t>
   </si>
   <si>
+    <t>In a 4-point stance, rotate sideways following the extended upper limb- open the chest, head rotating towards the upper limb. Hold a while. Come back by tucking the upper limb under the other, until shoulder touches the mat. In the extreme positions, hold for 5 seconds. Repeat 3 times on each side.</t>
+  </si>
+  <si>
     <t>CLMB</t>
   </si>
   <si>
+    <t>In the plank, alternate pulling the knees towards the shoulders, with the knees pointing straight below the chest at the maximum range of motion. Repeat 5 times on each side.</t>
+  </si>
+  <si>
     <t>FRLG</t>
   </si>
   <si>
+    <t>Perform a frontal lunge, back leg knee is going close to the mat. Repeat 5 times for each side.</t>
+  </si>
+  <si>
     <t>GLUT</t>
   </si>
   <si>
+    <t>On all fours- lift Your one leg up, with knee in flexion- alternate lower limbs- 10 reps on each leg</t>
+  </si>
+  <si>
+    <t>HLTC</t>
+  </si>
+  <si>
+    <t>From standing on the box, lower one leg down off the box, using the knee bend of the standing leg. Touch the heel to the mat, alternate limbs, repeat 5 times, each side.</t>
+  </si>
+  <si>
     <t>HMST</t>
   </si>
   <si>
+    <t>Laying on Your back, using theraband, lift one extended leg for hamstring stretch. Hold position for 10 seconds, repeat 5 times.</t>
+  </si>
+  <si>
     <t>HMSZ</t>
   </si>
   <si>
+    <t>Sitting on a chair, perform a stretch of the extended lower limb using a theraband, the theraband is around the foot, pulling the toe in, at the same time as pulling the straighten torso towards the toe. Duration in final position- 20 seconds. Repeat on other leg.</t>
+  </si>
+  <si>
     <t>HSSE</t>
   </si>
   <si>
+    <t xml:space="preserve">Lying on your back, lay the opposite limbs toward mat simultaneously, while holding the ball,strengthen Your abdomen. Repeat 10 time. </t>
+  </si>
+  <si>
     <t>IPST</t>
   </si>
   <si>
+    <t>From kneeling position, with one leg stepped forward, perform a groin stretch, by leaning Your pelvis forward. Hold for 10 seconds. repeat 5 times.</t>
+  </si>
+  <si>
     <t>JPJK</t>
   </si>
   <si>
+    <t>Perform jumping jacks, with straightened arms. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>LGST</t>
   </si>
   <si>
-    <t>LPLT</t>
+    <t>Perform a groin (hip flexor) stretch in the kneeling position, with one lower limb in front step. To stretch the back of the thighs, shift weight to the back, keeping the front lower limb extended, pull the toe in. Duration 20 seconds each time. Repeat 2 times on each side.</t>
   </si>
   <si>
     <t>LTDB</t>
   </si>
   <si>
+    <t>Lying on your stomach, arms upright, move your arms down to body, while holding your elbows close to trunk, repeat 10 times, head resting on forehead.</t>
+  </si>
+  <si>
     <t>LTLG</t>
   </si>
   <si>
-    <t>LTLP</t>
+    <t>Slowly transfer weight between sideway lunges, with feets on the mat, torso remains straighten. repeat 5 times at each side.</t>
   </si>
   <si>
     <t>LTPL</t>
   </si>
   <si>
+    <t>Perform a lateral plank. The whole body is facing forward. Head in extension of the spine. Free upper limb extended in the air. Hold for 10 seconds, repeat 3 times on each side.</t>
+  </si>
+  <si>
+    <t>MOZH</t>
+  </si>
+  <si>
+    <t>Sitting on the chair, touch the opposite ankle with your hand, the other upper limb goes up, rotate You chest and look at the upper hand. Repeat 5 times on each side.</t>
+  </si>
+  <si>
     <t>MOZR</t>
   </si>
   <si>
+    <t>Sitting on a chair,with your arms crossed on your shoulders, perform a trunk rotation, head is copying the trunk. Repeat 5 times on each side.</t>
+  </si>
+  <si>
     <t>OLDL</t>
   </si>
   <si>
+    <t>From standing, lean torso down at the same time as one extended leg descends, extend back to standing with weight in one hand. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>PLCI</t>
   </si>
   <si>
-    <t>PLLU</t>
+    <t>In a plank, with both forearms resting on the ball, perform small circles with the ball. Keep torso extended. 5 circles each side.</t>
   </si>
   <si>
     <t>PLM1</t>
   </si>
   <si>
+    <t>In a ball plank, with forearm support, knees straight, lower knees to the mat, knees not touching the ground, ball may roll out of place.Repeat 10 times</t>
+  </si>
+  <si>
     <t>PLTO</t>
   </si>
   <si>
+    <t>In the plank, alternate touching the opposite shoulder with one hand. keeping the trunk and head in same position. Repeat 5 times each side.</t>
+  </si>
+  <si>
     <t>PUSH</t>
   </si>
   <si>
+    <t>Perform a push-up, torso remains rigid, head in extension of spine. Variation with knee support.</t>
+  </si>
+  <si>
     <t>RFSN</t>
   </si>
   <si>
+    <t>Change yoga positions from roof to cobra, hold in for 3-5 seconds, repeat 5 times each.</t>
+  </si>
+  <si>
     <t>SKIS</t>
   </si>
   <si>
+    <t>From a standing position on bent lower legs, perform a sideways jump on both lower legs at once- stabilize in knee flexion, knees facing forward. Repeat 5 times on each side.</t>
+  </si>
+  <si>
     <t>SKJP</t>
   </si>
   <si>
+    <t>From standing on one leg,knee slightly bent, jump to the other leg, knees always facing forward on the rebound. Stabilize the position and jump to the other leg. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>SMSQ</t>
   </si>
   <si>
+    <t>Perform a wide squat, with weight in the middle, knees going into an outward bend, pelvis dropping to knee level. Hold for 15 seconds, repeat 5 times.</t>
+  </si>
+  <si>
     <t>SQOC</t>
   </si>
   <si>
+    <t>From standing barefoot at two balance trainers,  pelvic width, perform a squat. Knees point forward and do not exceed the edge of the thumbs. Repeat 10 times</t>
+  </si>
+  <si>
     <t>SQUA</t>
   </si>
   <si>
+    <t>Perform a squat, knees facing forward, not going over the edge of the leg.Repeat 10 times</t>
+  </si>
+  <si>
+    <t>STAR</t>
+  </si>
+  <si>
+    <t>From a standing position, touch all 7 points on the mat with one foot</t>
+  </si>
+  <si>
+    <t>STDZ</t>
+  </si>
+  <si>
+    <t>From standing at pelvic width, drop to sitting on a chair, knees facing forward, torso braced, buttocks touching the chair, no weight transfer, torso may lean slightly forward, then return to standing. Repeat 5 times.</t>
+  </si>
+  <si>
     <t>STRZ</t>
   </si>
   <si>
+    <t>Sitting on a chair, one lower leg in front of the body, the other next to the chair, use a theraband to stretch the front  thigh muscles, pulling the heel of back foot towards the buttocks.</t>
+  </si>
+  <si>
     <t>TRID</t>
   </si>
   <si>
+    <t>Supported by your hands on the box behind you, lower your body down to about a 90-degree bend at the elbows.  The lower limbs may be extended or bent at the knees. Repeat 10 times</t>
+  </si>
+  <si>
     <t>TRST</t>
   </si>
   <si>
+    <t>Standing , using the upper limb, perform a trapezius extension by tilting the head to the side. The other upper limb stays close to the body, wrist bent upwards. Repeat 2 times each side, hold for 15s.</t>
+  </si>
+  <si>
     <t>YMWS</t>
   </si>
   <si>
+    <t>While standing, perform 3 positions of upper limb - erect overhead in a Y shape, sideways with elbows at shoulder level, transitioning to pulling elbows to torso, moving by engaging and retracting shoulder blades. Return to the starting position. Repeat 8 times.</t>
+  </si>
+  <si>
     <t>YPST</t>
   </si>
   <si>
     <t>right_elbow</t>
   </si>
   <si>
-    <t>Starting position standing, feet hip-width apart, arms extended in a Y form, side bends to one side and to the other until whole side of body is stretched, with a 5 second hold. 3 repetitions on each side.</t>
+    <t>From standing, arms straighten in Y position, bend to sides, to maximal range, for stretching side of your trunk,hold for 3 seconds, repeat 5 times</t>
   </si>
   <si>
     <t>ZRCS</t>
+  </si>
+  <si>
+    <t>Sitting on a chair, with your elbows close to your body, perform a theraband extension, arms going out to the side and extending the theraband, elbows staying close to your body. Repeat 10 times.</t>
   </si>
   <si>
     <t>name</t>
@@ -216,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -236,6 +359,11 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -251,10 +379,47 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border/>
     <border>
-      <bottom style="thin">
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD2D2DF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD2D2DF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FFD2D2DF"/>
       </bottom>
     </border>
@@ -262,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -275,8 +440,26 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
@@ -503,6 +686,7 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="9.88"/>
     <col customWidth="1" min="4" max="4" width="77.25"/>
+    <col customWidth="1" min="5" max="5" width="16.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,263 +702,389 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>90.0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="F11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
+      <c r="A12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="F19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="s">
-        <v>26</v>
+      <c r="A22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="F22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>51</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="F29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>63</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="F33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>71</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="F34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>39</v>
+      <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="s">
-        <v>40</v>
+      <c r="A36" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>42</v>
+        <v>79</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="F38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>43</v>
+        <v>81</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="1">
-        <v>180.0</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="F40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>47</v>
+        <v>85</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42">
+      <c r="A42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="F42" s="3"/>
     </row>
     <row r="43">
@@ -782,6 +1092,9 @@
     </row>
     <row r="44">
       <c r="F44" s="3"/>
+    </row>
+    <row r="45">
+      <c r="F45" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -800,300 +1113,300 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11">
         <v>23.0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="11">
         <v>25.0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <v>27.0</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="11">
         <v>12.0</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="11">
         <v>13.0</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="11">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5">
+        <v>97</v>
+      </c>
+      <c r="B3" s="11">
         <v>24.0</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>26.0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <v>28.0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="11">
         <v>9.0</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="11">
         <v>10.0</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="11">
         <v>11.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="5">
+        <v>86</v>
+      </c>
+      <c r="B4" s="11">
         <v>15.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="11">
         <v>13.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <v>11.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <v>7.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <v>6.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="11">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="5">
+        <v>98</v>
+      </c>
+      <c r="B5" s="11">
         <v>16.0</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>14.0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>12.0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="11">
         <v>4.0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="11">
         <v>3.0</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="11">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5">
+        <v>99</v>
+      </c>
+      <c r="B6" s="11">
         <v>12.0</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>24.0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="11">
         <v>26.0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="11">
         <v>5.0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="11">
         <v>12.0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="11">
         <v>13.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="B7" s="11">
         <v>11.0</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="11">
         <v>23.0</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="11">
         <v>25.0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="11">
         <v>2.0</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>9.0</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="11">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="5">
+        <v>101</v>
+      </c>
+      <c r="B8" s="11">
         <v>32.0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>28.0</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="11">
         <v>26.0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="11">
         <v>20.0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="11">
         <v>21.0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="11">
         <v>13.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="5">
+        <v>102</v>
+      </c>
+      <c r="B9" s="11">
         <v>31.0</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="11">
         <v>27.0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>25.0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>23.0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <v>24.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="11">
         <v>10.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5">
+        <v>103</v>
+      </c>
+      <c r="B10" s="11">
         <v>14.0</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
         <v>12.0</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="11">
         <v>24.0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="11">
         <v>6.0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="11">
         <v>5.0</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="11">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="5">
+        <v>104</v>
+      </c>
+      <c r="B11" s="11">
         <v>13.0</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="11">
         <v>11.0</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="11">
         <v>23.0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="11">
         <v>3.0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="11">
         <v>2.0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="11">
         <v>9.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="5">
+        <v>105</v>
+      </c>
+      <c r="B12" s="11">
         <v>0.0</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="11">
         <v>33.0</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="11">
         <v>12.0</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="11">
         <v>0.0</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="11">
         <v>1.0</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="11">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="5">
+        <v>106</v>
+      </c>
+      <c r="B13" s="11">
         <v>0.0</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="11">
         <v>33.0</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="11">
         <v>11.0</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="11">
         <v>0.0</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="11">
         <v>1.0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="11">
         <v>2.0</v>
       </c>
     </row>

--- a/Instructions.xlsx
+++ b/Instructions.xlsx
@@ -5,6 +5,10 @@
   <sheets>
     <sheet state="visible" name="Exercices" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Angle" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Distance" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Alignment" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Parallelism" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Same_coordinate" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,221 +16,356 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="211">
   <si>
     <t>Exercise</t>
   </si>
   <si>
+    <t>Short Commentary</t>
+  </si>
+  <si>
+    <t>Long commentary</t>
+  </si>
+  <si>
+    <t>1st feature</t>
+  </si>
+  <si>
+    <t>1st parameter</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>2nd feature</t>
+  </si>
+  <si>
+    <t>2nd parameter</t>
+  </si>
+  <si>
+    <t>3rd feature</t>
+  </si>
+  <si>
+    <t>3rd parameter</t>
+  </si>
+  <si>
+    <t>4th feature</t>
+  </si>
+  <si>
+    <t>4th parameter</t>
+  </si>
+  <si>
+    <t>5th feature</t>
+  </si>
+  <si>
+    <t>5th parameter</t>
+  </si>
+  <si>
+    <t>1LBR</t>
+  </si>
+  <si>
+    <t>Lying on your back- knees bent, feet on the mat, perform a bridge lift. At the same time, lift one leg into the air. Alternate sides-repeat 5 times on each side.</t>
+  </si>
+  <si>
+    <t>Lie on your back, bend your knees, keep your feet on the mat. The upper limbs lie relaxed along the body. Raise your pelvis slowly up until it is in line with your torso. At the same time, lift up one leg with knee in 80-100 degrees flexion. The shoulder blades remain in contact with the mat. The movement is performed by gradually lifting, vertebra by vertebra. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>Angle</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Short Commentary</t>
-  </si>
-  <si>
-    <t>Long commentary</t>
-  </si>
-  <si>
-    <t>1LBR</t>
-  </si>
-  <si>
     <t>right_knee</t>
   </si>
   <si>
-    <t>Lying on your back- knees bent, feet on the mat, perform a bridge lift. At the same time, lift one leg into the air. Alternate sides-repeat 5 times on each side.</t>
-  </si>
-  <si>
-    <t>More information to come</t>
-  </si>
-  <si>
     <t>BBRW</t>
   </si>
   <si>
     <t>Standing, knees slightly bent, torso flexed, pull the dumbbell towards your body.Repeat 10 times.</t>
   </si>
   <si>
+    <t>Standing, legs pelvic width apart, knees slightly bent, bend over with straight torso. Grasp a dumbbell in both hands. Pull the dumbbell towards your chest, elbows pointing upwards. Keep your torso and head in a neutral position. 10 repetitions</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>ear_shoulder</t>
+  </si>
+  <si>
     <t>BRGM</t>
   </si>
   <si>
     <t>Lying on your back, with your legs extended and supported by the ball, perform the lift into the plank, Upper arms and shoulder blades remaining in contact with the mat. Repeat 10 times.</t>
   </si>
   <si>
+    <t>Lie on your back, stretch your lower limbs out on the ball, support is trough heels. With your torso extended, perform a pelvic lift. The pelvis goes high enough to create a torso, pelvis, lower limbs plane. Hands lie loosely on the ground. The head does not lift off the mat. Repeat 10 times.</t>
+  </si>
+  <si>
+    <t>Parallelism</t>
+  </si>
+  <si>
+    <t>shoulder_hip</t>
+  </si>
+  <si>
     <t>BRK4</t>
   </si>
   <si>
     <t>On all fours on the mat, alternate uplifting the opposite lower and upper limb simultaneously. 5 repetitions on each side.</t>
   </si>
   <si>
+    <t>Starting position on all fours on the mat, knees and hips at 90 degrees, toes locked on the mat. Torso braced, head in extension of spine, shoulders away from ears. Hands pointing forward, elbows not extended but slightly relaxed. On all fours, alternately extend the opposite lower and upper limb simultaneously. 5 repetitions on each side.</t>
+  </si>
+  <si>
     <t>BRKZ</t>
   </si>
   <si>
     <t xml:space="preserve">Lying on your back, lay the opposite limbs toward mat simultaneously, strengthen Your abdomen. Repeat 10 time. </t>
   </si>
   <si>
+    <t>Lying on your back, upper and lower limbs in 90 degree flexion over the mat, upper limb elbows in semi-flexion, lower limbs in 90 degree flexion at the knees and hips, stretch the opposite upper and lower limbs towards the mat.  The limbs do not touch the mat. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>BULG</t>
   </si>
   <si>
     <t>Standing on one leg and with the other supported by a chair behind you, perform squats on one leg. The knee of the standing leg should not exceed the line of the thumb.</t>
   </si>
   <si>
+    <t>Stand on one leg, resting the other leg on the chair behind you so that the knee of the back leg is in 90° flexion. Perform squats on one leg to the maximum position possible. Rest your arms out to the side or remain loosely by your body. Keep your torso and head straightened, do not lean to the side. Repeat 10 times, alternating legs.</t>
+  </si>
+  <si>
     <t>CHOP</t>
   </si>
   <si>
     <t>In a 4-point stance, rotate sideways following the extended upper limb- open the chest, head rotating towards the upper limb. Hold a while. Come back by tucking the upper limb under the other, until shoulder touches the mat. In the extreme positions, hold for 5 seconds. Repeat 3 times on each side.</t>
   </si>
   <si>
+    <t>On all fours, lift one upper limb up and to the side, with that,  rotate the torso sideways - open the chest, head rotates too, following the upper limb. From the extreme position and stretch of your chest, come back and down, by tucking the upper limb under the other, which remains supported by the mat- go down and rotate backwards, so your shoulder touches the mat. In the extreme positions, hold for 5 seconds. Repeat 3 times on each side.</t>
+  </si>
+  <si>
     <t>CLMB</t>
   </si>
   <si>
     <t>In the plank, alternate pulling the knees towards the shoulders, with the knees pointing straight below the chest at the maximum range of motion. Repeat 5 times on each side.</t>
   </si>
   <si>
+    <t>Perform a plank with palm support. Elbows are extended. Lower limbs are extended at the knees and locked with the toes on the mat. Head in a neutral position, gaze directed and the mat, torso braced. Perform pulling knees to chest, alternating sides at maximum range. Maintain trunk and head position, level with pelvis and lower legs. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>FRLG</t>
   </si>
   <si>
     <t>Perform a frontal lunge, back leg knee is going close to the mat. Repeat 5 times for each side.</t>
   </si>
   <si>
+    <t>From a standing position, lunge forward. The front leg drops to a 90 degree bend at the knee, the back leg drops to the ground with the knee. Do not place the knee on the ground, smoothly return to the starting position-standing. The torso remains in vertical extension throughout the movement. Place the upper limbs sideways or relax them along the body. Repeat 5 times on each side</t>
+  </si>
+  <si>
     <t>GLUT</t>
   </si>
   <si>
     <t>On all fours- lift Your one leg up, with knee in flexion- alternate lower limbs- 10 reps on each leg</t>
   </si>
   <si>
+    <t xml:space="preserve">On all fours- torso braced, head in spinal extension, knees below pelvic level, hands below shoulder level, elbows relaxed- raise one leg up with knee in 80-90° flexion- alternate lower limbs- 10 reps per leg. </t>
+  </si>
+  <si>
     <t>HLTC</t>
   </si>
   <si>
     <t>From standing on the box, lower one leg down off the box, using the knee bend of the standing leg. Touch the heel to the mat, alternate limbs, repeat 5 times, each side.</t>
   </si>
   <si>
+    <t>Standing on one foot on a step, lower the other outstretched lower limb towards the mat, touching the mat with heel.  The standing lower leg bends at the knee. Touch your heel to the mat. Keep the trunk and head in extension, do not lean sideways. Repeat 5 times on each side</t>
+  </si>
+  <si>
     <t>HMST</t>
   </si>
   <si>
     <t>Laying on Your back, using theraband, lift one extended leg for hamstring stretch. Hold position for 10 seconds, repeat 5 times.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lying on your back-lower limbs extended, use the theraband to lift one extended lower limb to a vertical position or to position, when you feel the back tigh stretch. The knee remains extended. Do not lift the head off the mat. The other lower limb remains extended, in contact with the mat. In the extreme position, add toe pull. Hold for 10-20 seconds, repeat 2 times on each side. </t>
+  </si>
+  <si>
     <t>HMSZ</t>
   </si>
   <si>
     <t>Sitting on a chair, perform a stretch of the extended lower limb using a theraband, the theraband is around the foot, pulling the toe in, at the same time as pulling the straighten torso towards the toe. Duration in final position- 20 seconds. Repeat on other leg.</t>
   </si>
   <si>
+    <t>Sitting on a chair, one lower limb under the body, foot in contact with the mat. The other lower limb extended in front of the body. Secure a theraband around the toe of the extended lower limb. Using your upper limbs, pull the toe towards you. At the same time you can lean your straightened torso forward. Your head in extension of your spine. Feel the pull on the back of your thigh, hold for 20 seconds. Switch sides</t>
+  </si>
+  <si>
     <t>HSSE</t>
   </si>
   <si>
     <t xml:space="preserve">Lying on your back, lay the opposite limbs toward mat simultaneously, while holding the ball,strengthen Your abdomen. Repeat 10 time. </t>
   </si>
   <si>
+    <t>Lie on your back, raise your upper and lower limbs. Place a gymnastic ball between all 4 limbs. The ball is held between your hands and knees. Keep your head on the mat and your torso braced. With an exhale, slightly push  opposite upper and lower limb into the ball, alternating sides.Hold for 5 seconds, repeat 5 times on each side.</t>
+  </si>
+  <si>
     <t>IPST</t>
   </si>
   <si>
     <t>From kneeling position, with one leg stepped forward, perform a groin stretch, by leaning Your pelvis forward. Hold for 10 seconds. repeat 5 times.</t>
   </si>
   <si>
+    <t xml:space="preserve">Perform a groin (hip flexor) stretch in a kneeling position, with one lower limb stepped forward, knee at 90 degrees-stretch is performed by shifting the pelvis forward and moving the whole body forward. The rear leg remains on the mat. The maximum position for stretch is the one, where you can feel the pull in the groin. Hold for 10-20 seconds, repeat 2 times on each side. </t>
+  </si>
+  <si>
     <t>JPJK</t>
   </si>
   <si>
     <t>Perform jumping jacks, with straightened arms. Repeat 10 times.</t>
   </si>
   <si>
+    <t>From standing on straight lower legs, upper legs close to the body, jump to standing straddle, lower legs extended. Upper limbs go into a lunge, Y shape. Torso and head remain in neutral position. Keep  your  elbows extended 10 repetitions.</t>
+  </si>
+  <si>
     <t>LGST</t>
   </si>
   <si>
     <t>Perform a groin (hip flexor) stretch in the kneeling position, with one lower limb in front step. To stretch the back of the thighs, shift weight to the back, keeping the front lower limb extended, pull the toe in. Duration 20 seconds each time. Repeat 2 times on each side.</t>
   </si>
   <si>
+    <t>Perform a groin (hip flexor) stretch in the kneeling position, with one lower limb in front step. To stretch the back of the thigh, shift weight to the back, sitting on your heel, keeping the front lower limb extended, pull the toe in. Duration 20 seconds each time. Repeat 2 times on each side.</t>
+  </si>
+  <si>
     <t>LTDB</t>
   </si>
   <si>
     <t>Lying on your stomach, arms upright, move your arms down to body, while holding your elbows close to trunk, repeat 10 times, head resting on forehead.</t>
   </si>
   <si>
+    <t>Lying on the stomach, lower limbs extended and clasped by the toes, upper limbs extended at the elbows and erect over the head, head resting on the forehead. Strengthen the trunk and buttocks. The upper limbs go just above the mat in an arc towards the thighs. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>LTLG</t>
   </si>
   <si>
     <t>Slowly transfer weight between sideway lunges, with feets on the mat, torso remains straighten. repeat 5 times at each side.</t>
   </si>
   <si>
+    <t xml:space="preserve">From a standing position, execute a sideways lunge by transferring weight to the stepping lower limb, dropping down to a 90 degree knee bend, torso straightened, and leaning forward with the butt pointing back over the standing leg, the other lower limb remaining in contact with the mat and going into stretch. The knee of the standing leg points forward. Hands help with balancing in front of the body. Hold for 10 seconds, repeat 3 times on each side. </t>
+  </si>
+  <si>
     <t>LTPL</t>
   </si>
   <si>
     <t>Perform a lateral plank. The whole body is facing forward. Head in extension of the spine. Free upper limb extended in the air. Hold for 10 seconds, repeat 3 times on each side.</t>
   </si>
   <si>
+    <t>Perform a lateral plank supported by both lower limbs and one upper limb, with the trunk extended and braced. Upper and lower limbs are extended, head, trunk and legs are in alignment. Free upper limb extended in the air. Hold for 10 seconds, Repeat 3 times on each side.</t>
+  </si>
+  <si>
     <t>MOZH</t>
   </si>
   <si>
     <t>Sitting on the chair, touch the opposite ankle with your hand, the other upper limb goes up, rotate You chest and look at the upper hand. Repeat 5 times on each side.</t>
   </si>
   <si>
+    <t>Sit on a chair, lower limbs in front of the body, feet in contact with the mat. Arms outstretched to the side, elbows extended. Using torso rotation, touch opposite ankle with one hand. Rotate the other upper limb up and behind the body, looking up at the hand. Alternate sides, repeat 5 times.</t>
+  </si>
+  <si>
     <t>MOZR</t>
   </si>
   <si>
     <t>Sitting on a chair,with your arms crossed on your shoulders, perform a trunk rotation, head is copying the trunk. Repeat 5 times on each side.</t>
   </si>
   <si>
+    <t>Sit on a chair, lower limbs in front of the body, feet in contact with the mat. Hands go crosswise on the opposite shoulder. Rotate the torso and turn sideways, to the maximum position possible. The head follows the movement of the torso. Keep the soles of the feet on the mat and the buttocks in contact with the chair. Stay in the maximum position for 5 seconds, repeat 5 times on each side.</t>
+  </si>
+  <si>
     <t>OLDL</t>
   </si>
   <si>
     <t>From standing, lean torso down at the same time as one extended leg descends, extend back to standing with weight in one hand. Repeat 10 times.</t>
   </si>
   <si>
+    <t>The starting position is standing with the legs at the width of the pelvis. Make the transition to weight, with the lower limb extended, rising at the same time as the torso descends forward and down. Maintain a straight torso, head in extension of the spine. Extend the upper limb towards the ground with the weight. Raise back up, lower limb dropping along with rising torso. If the standing leg is right, hold the weight in the left upper limb and vice versa. Repeat 5 times on the right, 5 times on the left lower limb.</t>
+  </si>
+  <si>
     <t>PLCI</t>
   </si>
   <si>
     <t>In a plank, with both forearms resting on the ball, perform small circles with the ball. Keep torso extended. 5 circles each side.</t>
   </si>
   <si>
+    <t>Perform a plank on the ball, support on your elbows, forearms and hands. Keep your torso, pelvis and lower limbs at one level. Lower limbs are extended. Perform small circles on the ball, keeping the trunk in alignment with the pelvis and lower limbs. Eyes on the ball. 5 circles on each side.</t>
+  </si>
+  <si>
     <t>PLM1</t>
   </si>
   <si>
     <t>In a ball plank, with forearm support, knees straight, lower knees to the mat, knees not touching the ground, ball may roll out of place.Repeat 10 times</t>
   </si>
   <si>
+    <t>Lean on the ball in a plank, elbows, forearms and hands are in contact with the ball. The torso is braced and straightened, the pelvis in line with the spine and lower legs. Knees are extended, with toe support. Lower, or bend the knees towards the mat, without transferring weight on them, The ball may roll slightly towards the knees. Straighten the knees again. Repeat 10 times.</t>
+  </si>
+  <si>
     <t>PLTO</t>
   </si>
   <si>
     <t>In the plank, alternate touching the opposite shoulder with one hand. keeping the trunk and head in same position. Repeat 5 times each side.</t>
   </si>
   <si>
+    <t>The plank-support through palms of the extended upper limbs and the toes of the extended lower limbs. The torso, pelvis and legs are all in plane. The head is in extension of the spine, the gaze is directed to the mat.  touch your shoulder by opposite hand. Keep the trunk, pelvis and legs straight. Change sides. Alternate sides, 5 repetitions.</t>
+  </si>
+  <si>
     <t>PUSH</t>
   </si>
   <si>
     <t>Perform a push-up, torso remains rigid, head in extension of spine. Variation with knee support.</t>
   </si>
   <si>
+    <t>Push-up: With the support of the extended upper limbs and the extended lower limbs, lower the body to the mat by bending the elbows. Keep the torso, pelvis and lower limbs in line. The elbows go to the side or remain alongside of body.  The head is in a neutral position, the gaze is directed to the mat. The second variation is with support on the knees. Repeat 10 times</t>
+  </si>
+  <si>
     <t>RFSN</t>
   </si>
   <si>
     <t>Change yoga positions from roof to cobra, hold in for 3-5 seconds, repeat 5 times each.</t>
   </si>
   <si>
+    <t>Stand in high plank, on outstretched arms and legs, buttocks pulled up, heels on the ground, knees extended, support on outstretched upper limbs. This position is called the roof. After stretching in the final position, make a transition to the cobra position- lay on your stomach over your outstretched arms. The lower limbs remain in contact with the mat, the torso goes into a backband, with the head in extension of the spine. In two final positions, hold for 10 seconds, 5 repetitions- changing from roof to cobra position smoothly.</t>
+  </si>
+  <si>
     <t>SKIS</t>
   </si>
   <si>
     <t>From a standing position on bent lower legs, perform a sideways jump on both lower legs at once- stabilize in knee flexion, knees facing forward. Repeat 5 times on each side.</t>
   </si>
   <si>
+    <t>From standing on lower limbs, at pelvic width, bent knees, perform a sideways jump, simultaneously on both lower limbs - stabilize until knees are bent, knees and toes pointing forward. Hands help stabilize the position. Once the position is stabilized, perform the jump to the other side. Repeat 5 times on each side.</t>
+  </si>
+  <si>
     <t>SKJP</t>
   </si>
   <si>
     <t>From standing on one leg,knee slightly bent, jump to the other leg, knees always facing forward on the rebound. Stabilize the position and jump to the other leg. Repeat 10 times.</t>
   </si>
   <si>
+    <t>From standing on one leg, knee bent, knee and toe pointing forward, jump to the other leg- stabilize the position on one leg, knee bent, knee and toe pointing forward. The upper limbs help stabilize the position. Keep the trunk and head in extension. You may lean your torso slightly forward to ease a little.Repeat 10 times.</t>
+  </si>
+  <si>
     <t>SMSQ</t>
   </si>
   <si>
     <t>Perform a wide squat, with weight in the middle, knees going into an outward bend, pelvis dropping to knee level. Hold for 15 seconds, repeat 5 times.</t>
   </si>
   <si>
+    <t>Static position, standing wide, toes and knees pointing outwards.  Perform a deep squat, pelvis drops to knee level. Torso and head in extension, you may bend forward slightly. Upper limbs not resting in support of your legs. Hold in the maximum position for 15 seconds, repeat 5 times.</t>
+  </si>
+  <si>
     <t>SQOC</t>
   </si>
   <si>
     <t>From standing barefoot at two balance trainers,  pelvic width, perform a squat. Knees point forward and do not exceed the edge of the thumbs. Repeat 10 times</t>
   </si>
   <si>
+    <t>From a standing- at pelvic width, knees and toes pointing forward, perform a squat so that your knees do not extend past the edges of your toes. Keep your torso and head straight. Hands not resting on legs, repeat 10 times.</t>
+  </si>
+  <si>
     <t>SQUA</t>
   </si>
   <si>
@@ -239,6 +378,9 @@
     <t>From a standing position, touch all 7 points on the mat with one foot</t>
   </si>
   <si>
+    <t>Standing position, with your arms folded at your sides. Without bowing, bending, or stooping in torso, extend one leg and touch 7 points on the mat in the directions of forward, diagonal forward, sideways, diagonal back, backward, diagonal back behind the body, and diagonal forward in front of the body on the other side.</t>
+  </si>
+  <si>
     <t>STDZ</t>
   </si>
   <si>
@@ -251,39 +393,57 @@
     <t>Sitting on a chair, one lower leg in front of the body, the other next to the chair, use a theraband to stretch the front  thigh muscles, pulling the heel of back foot towards the buttocks.</t>
   </si>
   <si>
+    <t>Sit on a chair, with one buttock outside of the chair. Using a theraband attached to the ankle, bring the free leg behind the body and bend the knee. With the theraband, pull the toe towards your buttocks until you feel a pull on the front of your thigh. Hold the position for 15-20 seconds. Keep your torso straight, head in extension of your spine. Repeat on the other side.</t>
+  </si>
+  <si>
     <t>TRID</t>
   </si>
   <si>
     <t>Supported by your hands on the box behind you, lower your body down to about a 90-degree bend at the elbows.  The lower limbs may be extended or bent at the knees. Repeat 10 times</t>
   </si>
   <si>
+    <t>Put your hands on the chair and support yourself on the chair behind you. Elbows extended, fingers pointing forward. Lower limbs are extended in knees, in front of the body, supported only by feet. The torso is firm, the head in neutral position, the buttocks loosely dropped towards the mat. Bend elbows down, elbows coming up to shoulder level, butt to ground. Repeat 5 times.</t>
+  </si>
+  <si>
     <t>TRST</t>
   </si>
   <si>
     <t>Standing , using the upper limb, perform a trapezius extension by tilting the head to the side. The other upper limb stays close to the body, wrist bent upwards. Repeat 2 times each side, hold for 15s.</t>
   </si>
   <si>
+    <t>Standing, lower limbs at pelvic width. Grasp the head on the opposite side with the hand and using the upper limb, make a clean sideways bend of the head so that you feel the pull on the side and back of the neck. Do not rotate the head. The other upper limb remains beside the body. At the same time as stretching the trapezius, add an upward bend of the wrist on the free upper limb. Hold for 15-20 seconds, 2 times on each side.</t>
+  </si>
+  <si>
     <t>YMWS</t>
   </si>
   <si>
     <t>While standing, perform 3 positions of upper limb - erect overhead in a Y shape, sideways with elbows at shoulder level, transitioning to pulling elbows to torso, moving by engaging and retracting shoulder blades. Return to the starting position. Repeat 8 times.</t>
   </si>
   <si>
+    <t>Standing at pelvic width, perform 3 changes of upper limb position in a row- erect overhead in a Y shape, move hands sideways with elbows at shoulder level in a candlestick shape, then pull the elbows to torso, moving by engaging and retracting shoulder blades. The palms are facing forward.The torso and head remain in an unchanged position. Return to the starting position. Repeat 8 times.</t>
+  </si>
+  <si>
     <t>YPST</t>
   </si>
   <si>
+    <t>From standing, arms straighten in Y position, bend to sides, to maximal range, for stretching side of your trunk,hold for 3 seconds, repeat 5 times</t>
+  </si>
+  <si>
+    <t>Starting position is standing, feet at pelvis width, arms extended in a Y shape, elbows extended. Perform side bends to one side and the other until the sides of the torso are maximally stretched, do not rotate the torso. 3 x to one side, 3 x to the other.</t>
+  </si>
+  <si>
     <t>right_elbow</t>
   </si>
   <si>
-    <t>From standing, arms straighten in Y position, bend to sides, to maximal range, for stretching side of your trunk,hold for 3 seconds, repeat 5 times</t>
-  </si>
-  <si>
     <t>ZRCS</t>
   </si>
   <si>
     <t>Sitting on a chair, with your elbows close to your body, perform a theraband extension, arms going out to the side and extending the theraband, elbows staying close to your body. Repeat 10 times.</t>
   </si>
   <si>
+    <t>Starting position is seated on a chair, lower legs at pelvic width, feet in contact with the mat, knees in 90° flexion, body and head straight. Grasp the theraband in your hands, elbows stay close to your body. Extend the theraband so that the elbows remain close to the body and the arms are going to the side.</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -333,13 +493,169 @@
   </si>
   <si>
     <t>right_neck</t>
+  </si>
+  <si>
+    <t>mp_point4</t>
+  </si>
+  <si>
+    <t>op_point4</t>
+  </si>
+  <si>
+    <t>shoulder_wrist</t>
+  </si>
+  <si>
+    <t>hip_knee</t>
+  </si>
+  <si>
+    <t>elbow_shoulder</t>
+  </si>
+  <si>
+    <t>midhip_knee</t>
+  </si>
+  <si>
+    <t>nose_elbow</t>
+  </si>
+  <si>
+    <t>ankle_knee</t>
+  </si>
+  <si>
+    <t>hip_ankle</t>
+  </si>
+  <si>
+    <t>elbow_hip</t>
+  </si>
+  <si>
+    <t>hand_ear</t>
+  </si>
+  <si>
+    <t>hand_knee</t>
+  </si>
+  <si>
+    <t>mp_point5</t>
+  </si>
+  <si>
+    <t>mp_point6</t>
+  </si>
+  <si>
+    <t>op_point5</t>
+  </si>
+  <si>
+    <t>op_point6</t>
+  </si>
+  <si>
+    <t>shoulder_hip_oknee</t>
+  </si>
+  <si>
+    <t>left_ankle_knee_hip_shoulder</t>
+  </si>
+  <si>
+    <t>right_ankle_knee_hip_shoulder</t>
+  </si>
+  <si>
+    <t>left_ear_shoulder_hip</t>
+  </si>
+  <si>
+    <t>right_ear_shoulder_hip</t>
+  </si>
+  <si>
+    <t>right_ear_shoulder_hip_knee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">left_ear_shoulder_hip_knee </t>
+  </si>
+  <si>
+    <t>left_ear_shoulder_hip_knee_ankle</t>
+  </si>
+  <si>
+    <t>right_ear_shoulder_hip_knee_ankle</t>
+  </si>
+  <si>
+    <t>nose_neck_midhip</t>
+  </si>
+  <si>
+    <t>nose_shoulder_midhip</t>
+  </si>
+  <si>
+    <t>right_shoulder_elbow_wrist</t>
+  </si>
+  <si>
+    <t>right_feet_oknee_otoes</t>
+  </si>
+  <si>
+    <t>left_ankle_knee_hip</t>
+  </si>
+  <si>
+    <t>right_ankle_knee_hip</t>
+  </si>
+  <si>
+    <t>ankle_knee_hip_shoulder_ear_hand</t>
+  </si>
+  <si>
+    <t>shoulder_neck_shoulder</t>
+  </si>
+  <si>
+    <t>right_hand_elbow_shoulder_left_shoulder_elbow_hand</t>
+  </si>
+  <si>
+    <t>left_shoulder_elbow_wrist</t>
+  </si>
+  <si>
+    <t>left_hand_knee_heel</t>
+  </si>
+  <si>
+    <t>right_hand_knee_heel</t>
+  </si>
+  <si>
+    <t>knee_hip_hip_knee</t>
+  </si>
+  <si>
+    <t>left_shoulder_hip_knee</t>
+  </si>
+  <si>
+    <t>right_shoulder_hip_knee</t>
+  </si>
+  <si>
+    <t>left_ear_elbow_shoulder</t>
+  </si>
+  <si>
+    <t>left_hand_elbow_hip</t>
+  </si>
+  <si>
+    <t>left_hand_elbow_shoulder_knee_hip_ankle</t>
+  </si>
+  <si>
+    <t>left_shoulder_elbow_knee</t>
+  </si>
+  <si>
+    <t>right_shoulder_elbow_knee</t>
+  </si>
+  <si>
+    <t>left_ear_elbow_shoulder_hip</t>
+  </si>
+  <si>
+    <t>left_wrist_elbow_shoulder_hip</t>
+  </si>
+  <si>
+    <t>right_wrist_elbow_shoulder_hip</t>
+  </si>
+  <si>
+    <t>shoulder_hip_oknee_oankle</t>
+  </si>
+  <si>
+    <t>knee_toe</t>
+  </si>
+  <si>
+    <t>toe_knee</t>
+  </si>
+  <si>
+    <t>hand_oshoulder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -347,12 +663,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -364,8 +690,17 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,97 +713,336 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF46524"/>
+        <bgColor rgb="FFF46524"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE6DD"/>
+        <bgColor rgb="FFFFE6DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF63D297"/>
+        <bgColor rgb="FF63D297"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7F9EF"/>
+        <bgColor rgb="FFE7F9EF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border/>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD2D2DF"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFD2D2DF"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD2D2DF"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="3" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf borderId="4" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF46524"/>
+          <bgColor rgb="FFF46524"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE6DD"/>
+          <bgColor rgb="FFFFE6DD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF4DD0E1"/>
+          <bgColor rgb="FF4DD0E1"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE0F7FA"/>
+          <bgColor rgb="FFE0F7FA"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF63D297"/>
+          <bgColor rgb="FF63D297"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE7F9EF"/>
+          <bgColor rgb="FFE7F9EF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7CB4D"/>
+          <bgColor rgb="FFF7CB4D"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF8E3"/>
+          <bgColor rgb="FFFEF8E3"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B95F9"/>
+          <bgColor rgb="FF5B95F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE8F0FE"/>
+          <bgColor rgb="FFE8F0FE"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFCCA677"/>
+          <bgColor rgb="FFCCA677"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F2EB"/>
+          <bgColor rgb="FFF8F2EB"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="6">
+    <tableStyle count="3" pivot="0" name="Exercices-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Angle-style">
+      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Distance-style">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="7" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Alignment-style">
+      <tableStyleElement dxfId="8" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="9" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Parallelism-style">
+      <tableStyleElement dxfId="10" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="11" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Same_coordinate-style">
+      <tableStyleElement dxfId="12" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="13" type="secondRowStripe"/>
+    </tableStyle>
+  </tableStyles>
 </styleSheet>
 </file>
 
@@ -478,6 +1052,140 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:R42" displayName="Table_1" id="1">
+  <tableColumns count="18">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+    <tableColumn name="Column3" id="3"/>
+    <tableColumn name="Column4" id="4"/>
+    <tableColumn name="Column5" id="5"/>
+    <tableColumn name="Column6" id="6"/>
+    <tableColumn name="Column7" id="7"/>
+    <tableColumn name="Column8" id="8"/>
+    <tableColumn name="Column9" id="9"/>
+    <tableColumn name="Column10" id="10"/>
+    <tableColumn name="Column11" id="11"/>
+    <tableColumn name="Column12" id="12"/>
+    <tableColumn name="Column13" id="13"/>
+    <tableColumn name="Column14" id="14"/>
+    <tableColumn name="Column15" id="15"/>
+    <tableColumn name="Column16" id="16"/>
+    <tableColumn name="Column17" id="17"/>
+    <tableColumn name="Column18" id="18"/>
+  </tableColumns>
+  <tableStyleInfo name="Exercices-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G13" displayName="Table_2" id="2">
+  <tableColumns count="7">
+    <tableColumn name="name" id="1"/>
+    <tableColumn name="mp_point1" id="2"/>
+    <tableColumn name="mp_point2" id="3"/>
+    <tableColumn name="mp_point3" id="4"/>
+    <tableColumn name="op_point1" id="5"/>
+    <tableColumn name="op_point2" id="6"/>
+    <tableColumn name="op_point3" id="7"/>
+  </tableColumns>
+  <tableStyleInfo name="Angle-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I13" displayName="Table_3" id="3">
+  <tableColumns count="9">
+    <tableColumn name="name" id="1"/>
+    <tableColumn name="mp_point1" id="2"/>
+    <tableColumn name="mp_point2" id="3"/>
+    <tableColumn name="mp_point3" id="4"/>
+    <tableColumn name="mp_point4" id="5"/>
+    <tableColumn name="op_point1" id="6"/>
+    <tableColumn name="op_point2" id="7"/>
+    <tableColumn name="op_point3" id="8"/>
+    <tableColumn name="op_point4" id="9"/>
+  </tableColumns>
+  <tableStyleInfo name="Distance-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:M31" displayName="Table_4" id="4">
+  <tableColumns count="13">
+    <tableColumn name="name" id="1"/>
+    <tableColumn name="mp_point1" id="2"/>
+    <tableColumn name="mp_point2" id="3"/>
+    <tableColumn name="mp_point3" id="4"/>
+    <tableColumn name="mp_point4" id="5"/>
+    <tableColumn name="mp_point5" id="6"/>
+    <tableColumn name="mp_point6" id="7"/>
+    <tableColumn name="op_point1" id="8"/>
+    <tableColumn name="op_point2" id="9"/>
+    <tableColumn name="op_point3" id="10"/>
+    <tableColumn name="op_point4" id="11"/>
+    <tableColumn name="op_point5" id="12"/>
+    <tableColumn name="op_point6" id="13"/>
+  </tableColumns>
+  <tableStyleInfo name="Alignment-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I8" displayName="Table_5" id="5">
+  <tableColumns count="9">
+    <tableColumn name="name" id="1"/>
+    <tableColumn name="mp_point1" id="2"/>
+    <tableColumn name="mp_point2" id="3"/>
+    <tableColumn name="mp_point3" id="4"/>
+    <tableColumn name="mp_point4" id="5"/>
+    <tableColumn name="op_point1" id="6"/>
+    <tableColumn name="op_point2" id="7"/>
+    <tableColumn name="op_point3" id="8"/>
+    <tableColumn name="op_point4" id="9"/>
+  </tableColumns>
+  <tableStyleInfo name="Parallelism-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:I4" displayName="Table_6" id="6">
+  <tableColumns count="9">
+    <tableColumn name="name" id="1"/>
+    <tableColumn name="mp_point1" id="2"/>
+    <tableColumn name="mp_point2" id="3"/>
+    <tableColumn name="mp_point3" id="4"/>
+    <tableColumn name="mp_point4" id="5"/>
+    <tableColumn name="op_point1" id="6"/>
+    <tableColumn name="op_point2" id="7"/>
+    <tableColumn name="op_point3" id="8"/>
+    <tableColumn name="op_point4" id="9"/>
+  </tableColumns>
+  <tableStyleInfo name="Same_coordinate-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -680,424 +1388,1187 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2" pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="9.88"/>
-    <col customWidth="1" min="4" max="4" width="77.25"/>
-    <col customWidth="1" min="5" max="5" width="16.38"/>
+    <col customWidth="1" min="2" max="2" width="46.63"/>
+    <col customWidth="1" min="3" max="3" width="47.5"/>
+    <col customWidth="1" min="4" max="5" width="19.88"/>
+    <col customWidth="1" min="7" max="7" width="16.13"/>
+    <col customWidth="1" min="8" max="8" width="20.25"/>
+    <col customWidth="1" min="10" max="10" width="14.75"/>
+    <col customWidth="1" min="11" max="11" width="21.88"/>
+    <col customWidth="1" min="13" max="13" width="15.13"/>
+    <col customWidth="1" min="14" max="14" width="19.13"/>
+    <col customWidth="1" min="16" max="16" width="15.25"/>
+    <col customWidth="1" min="17" max="17" width="18.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="10">
         <v>90.0</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="15"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="12"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="A5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="15"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="15"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="15"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="15"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="15"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="15"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="15"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="15"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="15"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="15"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="1">
+      <c r="E41" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="10">
         <v>180.0</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="3"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="15"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="3"/>
+      <c r="A42" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="12"/>
     </row>
     <row r="43">
-      <c r="F43" s="3"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
     </row>
     <row r="44">
-      <c r="F44" s="3"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45">
-      <c r="F45" s="3"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1112,305 +2583,2081 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>96</v>
+      <c r="A1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="20">
         <v>23.0</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="20">
         <v>25.0</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="20">
         <v>27.0</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="20">
         <v>12.0</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="20">
         <v>13.0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="20">
         <v>14.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="A3" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="20">
         <v>24.0</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="20">
         <v>26.0</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="20">
         <v>28.0</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="20">
         <v>9.0</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="20">
         <v>10.0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="20">
         <v>11.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="A4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="20">
         <v>15.0</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="20">
         <v>13.0</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="20">
         <v>11.0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="20">
         <v>7.0</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="20">
         <v>6.0</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="20">
         <v>5.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="11">
+      <c r="A5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="20">
         <v>16.0</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="20">
         <v>14.0</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="20">
         <v>12.0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="20">
         <v>4.0</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="20">
         <v>3.0</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="20">
         <v>2.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="20">
         <v>12.0</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="20">
         <v>24.0</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="20">
         <v>26.0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="20">
         <v>5.0</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="20">
         <v>12.0</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="20">
         <v>13.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="20">
         <v>11.0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="20">
         <v>23.0</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="20">
         <v>25.0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="20">
         <v>2.0</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="20">
         <v>9.0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="20">
         <v>10.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="A8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="20">
         <v>32.0</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="20">
         <v>28.0</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="20">
         <v>26.0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="20">
         <v>20.0</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="20">
         <v>21.0</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="20">
         <v>13.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="11">
+      <c r="A9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="20">
         <v>31.0</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="20">
         <v>27.0</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="20">
         <v>25.0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="20">
         <v>23.0</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="20">
         <v>24.0</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="20">
         <v>10.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="11">
+      <c r="A10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="20">
         <v>14.0</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="20">
         <v>12.0</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="20">
         <v>24.0</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="20">
         <v>6.0</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="20">
         <v>5.0</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="20">
         <v>12.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="11">
+      <c r="A11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="20">
         <v>13.0</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="20">
         <v>11.0</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="20">
         <v>23.0</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="20">
         <v>3.0</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="20">
         <v>2.0</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="20">
         <v>9.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="A12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="20">
         <v>0.0</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="20">
         <v>33.0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="20">
         <v>12.0</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="20">
         <v>0.0</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="20">
         <v>1.0</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="20">
         <v>5.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="11">
+      <c r="A13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="20">
         <v>0.0</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="20">
         <v>33.0</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="20">
         <v>11.0</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="20">
         <v>0.0</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="20">
         <v>1.0</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="20">
         <v>2.0</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>17.0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>18.0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>16.0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>6.0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="20">
+        <v>27.0</v>
+      </c>
+      <c r="C9" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="D9" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="E9" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="C10" s="20">
+        <v>27.0</v>
+      </c>
+      <c r="D10" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="E10" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="C11" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="D11" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="E11" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="F11" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>6.0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="C12" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>16.0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>17.0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="C13" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="D13" s="20">
+        <v>16.0</v>
+      </c>
+      <c r="E13" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="F13" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="G13" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="H13" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="I13" s="20">
+        <v>13.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="C2" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="D2" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="I2" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="I3" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="J3" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="K3" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="23">
+        <v>27.0</v>
+      </c>
+      <c r="C4" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="I4" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="J4" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="K4" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="C5" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="25">
+        <v>18.0</v>
+      </c>
+      <c r="I5" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="J5" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C6" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="D6" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="23">
+        <v>17.0</v>
+      </c>
+      <c r="I6" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="C7" s="25">
+        <v>11.0</v>
+      </c>
+      <c r="D7" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>25.0</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="25">
+        <v>17.0</v>
+      </c>
+      <c r="I7" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="J7" s="25">
+        <v>9.0</v>
+      </c>
+      <c r="K7" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="D8" s="23">
+        <v>24.0</v>
+      </c>
+      <c r="E8" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="23">
+        <v>18.0</v>
+      </c>
+      <c r="I8" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="J8" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="K8" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="C9" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="D9" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="E9" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="F9" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="G9" s="26"/>
+      <c r="H9" s="25">
+        <v>18.0</v>
+      </c>
+      <c r="I9" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="J9" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="K9" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="L9" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="D10" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="E10" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="F10" s="23">
+        <v>27.0</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="23">
+        <v>17.0</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="J10" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="K10" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="L10" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="C11" s="25">
+        <v>33.0</v>
+      </c>
+      <c r="D11" s="25">
+        <v>34.0</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="J11" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="C12" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>34.0</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="23">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="J12" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="25">
+        <v>11.0</v>
+      </c>
+      <c r="C13" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="D13" s="25">
+        <v>15.0</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="I13" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="J13" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="C14" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="D14" s="23">
+        <v>32.0</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="23">
+        <v>24.0</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="J14" s="23">
+        <v>19.0</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="C15" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="D15" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="I15" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="J15" s="25">
+        <v>19.0</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="23">
+        <v>23.0</v>
+      </c>
+      <c r="C16" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="D16" s="23">
+        <v>27.0</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="I16" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="J16" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="D17" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="E17" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="F17" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>16.0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="J17" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="K17" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="L17" s="25">
+        <v>18.0</v>
+      </c>
+      <c r="M17" s="25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="C18" s="23">
+        <v>33.0</v>
+      </c>
+      <c r="D18" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="I18" s="23">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="25">
+        <v>15.0</v>
+      </c>
+      <c r="C19" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="D19" s="25">
+        <v>11.0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>16.0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="I19" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="J19" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="K19" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="L19" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="M19" s="25">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="C20" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="D20" s="23">
+        <v>16.0</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="J20" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="25">
+        <v>16.0</v>
+      </c>
+      <c r="C21" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="D21" s="25">
+        <v>30.0</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="25">
+        <v>7.0</v>
+      </c>
+      <c r="I21" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="J21" s="25">
+        <v>21.0</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22" s="23">
+        <v>15.0</v>
+      </c>
+      <c r="C22" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="D22" s="23">
+        <v>29.0</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="25">
+        <v>25.0</v>
+      </c>
+      <c r="C23" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="D23" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="E23" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="25">
+        <v>10.0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>9.0</v>
+      </c>
+      <c r="J23" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="K23" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="C24" s="23">
+        <v>24.0</v>
+      </c>
+      <c r="D24" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="I24" s="23">
+        <v>9.0</v>
+      </c>
+      <c r="J24" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B25" s="25">
+        <v>11.0</v>
+      </c>
+      <c r="C25" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="D25" s="25">
+        <v>25.0</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="I25" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="J25" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="23">
+        <v>8.0</v>
+      </c>
+      <c r="C26" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="D26" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="23">
+        <v>18.0</v>
+      </c>
+      <c r="I26" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="J26" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" s="25">
+        <v>16.0</v>
+      </c>
+      <c r="C27" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="D27" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="J27" s="25">
+        <v>9.0</v>
+      </c>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" s="23">
+        <v>16.0</v>
+      </c>
+      <c r="C28" s="23">
+        <v>14.0</v>
+      </c>
+      <c r="D28" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="E28" s="23">
+        <v>24.0</v>
+      </c>
+      <c r="F28" s="23">
+        <v>26.0</v>
+      </c>
+      <c r="G28" s="23">
+        <v>28.0</v>
+      </c>
+      <c r="H28" s="23">
+        <v>7.0</v>
+      </c>
+      <c r="I28" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="J28" s="23">
+        <v>5.0</v>
+      </c>
+      <c r="K28" s="23">
+        <v>12.0</v>
+      </c>
+      <c r="L28" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="M28" s="23">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="C29" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="D29" s="25">
+        <v>26.0</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="I29" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="J29" s="25">
+        <v>13.0</v>
+      </c>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="23">
+        <v>11.0</v>
+      </c>
+      <c r="C30" s="23">
+        <v>13.0</v>
+      </c>
+      <c r="D30" s="23">
+        <v>25.0</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="23">
+        <v>2.0</v>
+      </c>
+      <c r="I30" s="23">
+        <v>3.0</v>
+      </c>
+      <c r="J30" s="23">
+        <v>10.0</v>
+      </c>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="25">
+        <v>8.0</v>
+      </c>
+      <c r="C31" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="D31" s="25">
+        <v>14.0</v>
+      </c>
+      <c r="E31" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="25">
+        <v>18.0</v>
+      </c>
+      <c r="I31" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="J31" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="K31" s="25">
+        <v>12.0</v>
+      </c>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="20">
+        <v>16.0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>24.0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>6.0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="D5" s="20">
+        <v>27.0</v>
+      </c>
+      <c r="E5" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="F5" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="H5" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="I5" s="20">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="C6" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="D6" s="20">
+        <v>8.0</v>
+      </c>
+      <c r="E6" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>17.0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="20">
+        <v>18.0</v>
+      </c>
+      <c r="I6" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="C7" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="D7" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="F7" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>9.0</v>
+      </c>
+      <c r="H7" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="I7" s="20">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="C8" s="20">
+        <v>31.0</v>
+      </c>
+      <c r="D8" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="E8" s="20">
+        <v>32.0</v>
+      </c>
+      <c r="F8" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>23.0</v>
+      </c>
+      <c r="H8" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="I8" s="20">
+        <v>20.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="20">
+        <v>27.0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>25.0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>28.0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>26.0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>10.0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B3" s="20">
+        <v>16.0</v>
+      </c>
+      <c r="C3" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="D3" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="E3" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="F3" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="H3" s="20">
+        <v>4.0</v>
+      </c>
+      <c r="I3" s="20">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="20">
+        <v>12.0</v>
+      </c>
+      <c r="C4" s="20">
+        <v>14.0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>13.0</v>
+      </c>
+      <c r="F4" s="20">
+        <v>5.0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>6.0</v>
+      </c>
+      <c r="H4" s="20">
+        <v>2.0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>